--- a/test case.xlsx
+++ b/test case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bboksil\Downloads\PortableGit\CAD_SPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LUC\jupyter\2023_lab_product_line\CAD_SPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7493136D-530A-495C-B72F-DB9C8A0F140B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD260C6-066A-43E2-91B7-00D1B573C195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7932" xr2:uid="{ED1B1FC5-2511-4FFF-8433-6C8B383B13B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED1B1FC5-2511-4FFF-8433-6C8B383B13B8}"/>
   </bookViews>
   <sheets>
     <sheet name="TESTCASE" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="322">
   <si>
     <t>TID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,395 +722,455 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_mm_to_cm</t>
+  </si>
+  <si>
+    <t>change_mm_to_cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_val_to_coor</t>
+  </si>
+  <si>
+    <t>change_cmd_for_tello</t>
+  </si>
+  <si>
+    <t>change_windows_to_window</t>
+  </si>
+  <si>
+    <t>forward_cmd</t>
+  </si>
+  <si>
+    <t>Products (ver1, ver2, ver3, ver4, ver5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Products with cases applied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tello8889Sensor</t>
+  </si>
+  <si>
+    <t>Tello8889Sensor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tello8889Senosr.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tello8889Sensor.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_w_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_a_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_d_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_takeoff_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_s_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_land_control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_tof_in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_tof_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_tof_boundary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_camera_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_camera_none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_object_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_object_none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_ir_calculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_SN_</t>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change_mm_to_cm</t>
-  </si>
-  <si>
-    <t>change_mm_to_cm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change_val_to_coor</t>
-  </si>
-  <si>
-    <t>change_cmd_for_tello</t>
-  </si>
-  <si>
-    <t>change_windows_to_window</t>
-  </si>
-  <si>
-    <t>forward_cmd</t>
-  </si>
-  <si>
-    <t>Products (ver1, ver2, ver3, ver4, ver5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,1,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,0,0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Products with cases applied</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tello8889Sensor</t>
-  </si>
-  <si>
-    <t>Tello8889Sensor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tello8889Senosr.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tello8889Sensor.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_w_control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_a_control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_d_control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_takeoff_control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_s_control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_land_control</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_tof_in</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_tof_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_tof_boundary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_camera_val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_camera_none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_object_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_object_none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_SN_ir_calculate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,8 +1178,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1307,7 +1368,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1369,6 +1430,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1378,7 +1452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1439,9 +1513,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1628,6 +1699,42 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1640,49 +1747,73 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2009,10 +2140,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I328"/>
+  <dimension ref="A1:I353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H275" sqref="H275"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2025,18 +2156,18 @@
     <col min="6" max="6" width="23.19921875" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="20.8984375" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="76" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" style="75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
@@ -2059,833 +2190,836 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>2042</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>1235</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="33">
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33">
         <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="30" t="s">
+      <c r="A13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="33">
         <v>1947</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="33">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="33">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="33">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="33">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="33">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="33">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="33">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="33">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="33">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="33">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="33">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="33">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="33">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="33">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="33">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="33">
+        <v>324</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" s="76">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="33">
+        <v>782</v>
+      </c>
+      <c r="H32" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="I32" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F33" s="33">
+        <v>541</v>
+      </c>
+      <c r="H33" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="F34" s="33">
+        <v>1022</v>
+      </c>
+      <c r="H34" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="I34" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="33">
+        <v>1151</v>
+      </c>
+      <c r="H35" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="I35" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36" s="33">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="34">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="B37" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="33">
+        <v>155</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I37" s="76">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="B38" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F38" s="33">
+        <v>132</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="76">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="B39" s="84" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" s="33">
+        <v>245</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="34">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="34">
-        <v>3724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="34">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="34">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="34">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="34">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="34">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="34">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="34">
-        <v>945</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="77">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="34">
-        <v>126</v>
-      </c>
-      <c r="H26" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="I26" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="34">
-        <v>182</v>
-      </c>
-      <c r="H27" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="I27" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="34">
-        <v>869</v>
-      </c>
-      <c r="H28" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="I28" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="34">
-        <v>144</v>
-      </c>
-      <c r="H29" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="I29" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="F30" s="34">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F31" s="34">
-        <v>324</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I31" s="77">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="F32" s="34">
-        <v>782</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="77">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="F33" s="34">
-        <v>541</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I33" s="77">
-        <f>SUM(F3:F34)</f>
-        <v>21741</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="F34" s="34">
-        <v>1022</v>
-      </c>
-      <c r="H34" s="4" t="s">
+      <c r="I39" s="76">
+        <f>SUM(F3:F40)</f>
+        <v>23659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" s="84" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" s="33">
+        <v>111</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I34" s="77">
-        <f>I33/3600</f>
-        <v>6.0391666666666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="B35" s="99" t="s">
-        <v>287</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="96"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" s="29" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" s="99" t="s">
-        <v>288</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D36" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="96"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B37" s="99" t="s">
-        <v>289</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="96"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="B38" s="99" t="s">
-        <v>291</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F38" s="34"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="96"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" s="99" t="s">
-        <v>290</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F39" s="34"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="96"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="B40" s="99" t="s">
-        <v>293</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="H40" s="95"/>
-      <c r="I40" s="96"/>
+      <c r="I40" s="101">
+        <f>I39/3600</f>
+        <v>6.5719444444444441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H41" s="100"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
@@ -2908,22 +3042,22 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="C44" s="22" t="s">
+      <c r="B44" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C44" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="27">
+      <c r="F44" s="26">
         <v>82</v>
       </c>
     </row>
@@ -3155,10 +3289,10 @@
         <v>49</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>15</v>
@@ -3175,10 +3309,10 @@
         <v>49</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>16</v>
@@ -3195,10 +3329,10 @@
         <v>49</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>17</v>
@@ -3308,19 +3442,19 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="8">
@@ -3368,19 +3502,19 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D67" s="25" t="s">
+      <c r="D67" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="24" t="s">
         <v>82</v>
       </c>
       <c r="F67" s="8">
@@ -3388,29 +3522,23 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="D68" s="25" t="s">
+      <c r="D68" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="25" t="s">
+      <c r="E68" s="24" t="s">
         <v>83</v>
       </c>
       <c r="F68" s="8">
         <v>652</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I68" s="77">
-        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
@@ -3432,12 +3560,6 @@
       <c r="F69" s="7">
         <v>30</v>
       </c>
-      <c r="H69" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="I69" s="77">
-        <v>4</v>
-      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="9" t="s">
@@ -3458,12 +3580,6 @@
       <c r="F70" s="7">
         <v>30</v>
       </c>
-      <c r="H70" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="I70" s="77">
-        <v>0</v>
-      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="9" t="s">
@@ -3475,20 +3591,14 @@
       <c r="C71" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D71" s="20" t="s">
-        <v>267</v>
+      <c r="D71" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E71" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F71" s="7">
         <v>30</v>
-      </c>
-      <c r="H71" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="I71" s="77">
-        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.4">
@@ -3501,20 +3611,14 @@
       <c r="C72" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="20" t="s">
-        <v>267</v>
+      <c r="D72" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F72" s="7">
         <v>30</v>
-      </c>
-      <c r="H72" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="I72" s="77">
-        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.4">
@@ -3527,11 +3631,11 @@
       <c r="C73" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="20" t="s">
-        <v>267</v>
+      <c r="D73" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F73" s="7">
         <v>30</v>
@@ -3547,20 +3651,14 @@
       <c r="C74" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="20" t="s">
-        <v>267</v>
+      <c r="D74" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F74" s="7">
         <v>30</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I74" s="77">
-        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.4">
@@ -3573,20 +3671,14 @@
       <c r="C75" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="20" t="s">
-        <v>267</v>
+      <c r="D75" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F75" s="7">
         <v>30</v>
-      </c>
-      <c r="H75" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I75" s="77">
-        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.4">
@@ -3599,21 +3691,14 @@
       <c r="C76" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="20" t="s">
-        <v>267</v>
+      <c r="D76" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F76" s="7">
         <v>30</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I76" s="77">
-        <f>SUM(F44:F77)</f>
-        <v>2630</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
@@ -3626,206 +3711,255 @@
       <c r="C77" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="20" t="s">
-        <v>267</v>
+      <c r="D77" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F77" s="7">
         <v>30</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I77" s="77">
-        <f>I76/3600</f>
-        <v>0.73055555555555551</v>
+        <v>179</v>
+      </c>
+      <c r="I77" s="76">
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="97" t="s">
+      <c r="A78" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E78" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F78" s="86">
+        <v>30</v>
+      </c>
+      <c r="H78" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="I78" s="76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B79" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D79" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F79" s="86">
+        <v>30</v>
+      </c>
+      <c r="H79" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I79" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C78" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D78" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E78" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F78" s="101"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="96"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="97" t="s">
-        <v>268</v>
-      </c>
-      <c r="B79" s="16" t="s">
+      <c r="C80" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D80" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E80" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F80" s="86">
+        <v>30</v>
+      </c>
+      <c r="H80" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="I80" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D81" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E81" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="86">
+        <v>30</v>
+      </c>
+      <c r="H81" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="I81" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="B82" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C79" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D79" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E79" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F79" s="101"/>
-      <c r="H79" s="95"/>
-      <c r="I79" s="96"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="B80" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C80" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D80" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E80" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F80" s="101"/>
-      <c r="H80" s="95"/>
-      <c r="I80" s="96"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="97" t="s">
+      <c r="C82" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D82" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E82" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F82" s="86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C83" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D83" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="86">
+        <v>30</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I83" s="76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="B81" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C81" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D81" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E81" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F81" s="101"/>
-      <c r="H81" s="95"/>
-      <c r="I81" s="96"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="97" t="s">
+      <c r="B84" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F84" s="26">
+        <v>1625</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I84" s="76">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C82" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D82" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E82" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F82" s="101"/>
-      <c r="H82" s="95"/>
-      <c r="I82" s="96"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="97" t="s">
-        <v>292</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C83" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D83" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E83" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F83" s="101"/>
-      <c r="H83" s="95"/>
-      <c r="I83" s="96"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="B84" s="24" t="s">
+      <c r="B85" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D84" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="F84" s="27"/>
-      <c r="H84" s="95"/>
-      <c r="I84" s="96"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>296</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
-      <c r="F85" s="27"/>
-      <c r="H85" s="95"/>
-      <c r="I85" s="96"/>
+      <c r="F85" s="26">
+        <v>165</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I85" s="76">
+        <f>SUM(F44:F86)</f>
+        <v>4744</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="B86" s="24" t="s">
+      <c r="A86" s="22" t="s">
         <v>295</v>
       </c>
+      <c r="B86" s="23" t="s">
+        <v>293</v>
+      </c>
       <c r="C86" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="F86" s="27"/>
-      <c r="H86" s="95"/>
-      <c r="I86" s="96"/>
+        <v>265</v>
+      </c>
+      <c r="F86" s="26">
+        <v>144</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I86" s="101">
+        <f>I85/3600</f>
+        <v>1.3177777777777777</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" s="92" t="s">
+      <c r="A88" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="90"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="89"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="10" t="s">
@@ -3848,22 +3982,22 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C90" s="37" t="s">
+      <c r="B90" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="D90" s="37" t="s">
+      <c r="D90" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="37" t="s">
+      <c r="E90" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="38">
+      <c r="F90" s="37">
         <v>577</v>
       </c>
     </row>
@@ -4095,10 +4229,10 @@
         <v>49</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E102" s="14" t="s">
         <v>15</v>
@@ -4115,10 +4249,10 @@
         <v>49</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E103" s="14" t="s">
         <v>16</v>
@@ -4135,10 +4269,10 @@
         <v>49</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E104" s="14" t="s">
         <v>17</v>
@@ -4148,62 +4282,62 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="35" t="s">
+      <c r="A105" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B105" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C105" s="37" t="s">
+      <c r="C105" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D105" s="37" t="s">
+      <c r="D105" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E105" s="37" t="s">
+      <c r="E105" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F105" s="39">
+      <c r="F105" s="38">
         <v>1989</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="35" t="s">
+      <c r="A106" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B106" s="36" t="s">
+      <c r="B106" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C106" s="37" t="s">
+      <c r="C106" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D106" s="37" t="s">
+      <c r="D106" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="E106" s="37" t="s">
+      <c r="E106" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F106" s="39">
+      <c r="F106" s="38">
         <v>652</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="35" t="s">
+      <c r="A107" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C107" s="37" t="s">
+      <c r="C107" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D107" s="37" t="s">
+      <c r="D107" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="E107" s="37" t="s">
+      <c r="E107" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F107" s="39">
+      <c r="F107" s="38">
         <v>357</v>
       </c>
     </row>
@@ -4308,22 +4442,22 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A113" s="35" t="s">
+      <c r="A113" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="B113" s="36" t="s">
+      <c r="B113" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C113" s="37" t="s">
+      <c r="C113" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D113" s="37" t="s">
+      <c r="D113" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E113" s="37" t="s">
+      <c r="E113" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F113" s="39">
+      <c r="F113" s="38">
         <v>669</v>
       </c>
     </row>
@@ -4408,119 +4542,101 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C118" s="37" t="s">
+      <c r="C118" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D118" s="37" t="s">
+      <c r="D118" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E118" s="37" t="s">
+      <c r="E118" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="F118" s="39">
+      <c r="F118" s="38">
         <v>745</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A119" s="35" t="s">
+      <c r="A119" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="B119" s="36" t="s">
+      <c r="B119" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C119" s="37" t="s">
+      <c r="C119" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D119" s="37" t="s">
+      <c r="D119" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E119" s="37" t="s">
+      <c r="E119" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="F119" s="39">
+      <c r="F119" s="38">
         <v>659</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A120" s="35" t="s">
+      <c r="A120" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B120" s="36" t="s">
+      <c r="B120" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C120" s="37" t="s">
+      <c r="C120" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D120" s="37" t="s">
+      <c r="D120" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E120" s="37" t="s">
+      <c r="E120" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="F120" s="39">
+      <c r="F120" s="38">
         <v>982</v>
       </c>
-      <c r="H120" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I120" s="77">
-        <v>30</v>
-      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A121" s="35" t="s">
+      <c r="A121" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="B121" s="36" t="s">
+      <c r="B121" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C121" s="37" t="s">
+      <c r="C121" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="D121" s="37" t="s">
+      <c r="D121" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="E121" s="37" t="s">
+      <c r="E121" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F121" s="39">
+      <c r="F121" s="38">
         <v>625</v>
       </c>
-      <c r="H121" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="I121" s="77">
-        <v>0</v>
-      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A122" s="35" t="s">
+      <c r="A122" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="B122" s="37" t="s">
+      <c r="B122" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="C122" s="37" t="s">
+      <c r="C122" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37" t="s">
+      <c r="D122" s="36"/>
+      <c r="E122" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="F122" s="39">
+      <c r="F122" s="38">
         <v>1003</v>
-      </c>
-      <c r="H122" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="I122" s="77">
-        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.4">
@@ -4533,20 +4649,14 @@
       <c r="C123" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D123" s="20" t="s">
-        <v>267</v>
+      <c r="D123" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E123" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F123" s="7">
         <v>30</v>
-      </c>
-      <c r="H123" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="I123" s="77">
-        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.4">
@@ -4559,20 +4669,14 @@
       <c r="C124" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D124" s="20" t="s">
-        <v>267</v>
+      <c r="D124" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E124" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F124" s="7">
         <v>30</v>
-      </c>
-      <c r="H124" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="I124" s="77">
-        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.4">
@@ -4585,11 +4689,11 @@
       <c r="C125" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D125" s="20" t="s">
-        <v>267</v>
+      <c r="D125" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F125" s="7">
         <v>30</v>
@@ -4605,20 +4709,14 @@
       <c r="C126" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D126" s="20" t="s">
-        <v>267</v>
+      <c r="D126" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F126" s="7">
         <v>30</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I126" s="77">
-        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.4">
@@ -4631,20 +4729,14 @@
       <c r="C127" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D127" s="20" t="s">
-        <v>267</v>
+      <c r="D127" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F127" s="7">
         <v>30</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I127" s="77">
-        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.4">
@@ -4657,21 +4749,20 @@
       <c r="C128" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D128" s="20" t="s">
-        <v>267</v>
+      <c r="D128" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" s="7">
         <v>30</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I128" s="77">
-        <f>SUM(F90:F129)</f>
-        <v>9158</v>
+        <v>179</v>
+      </c>
+      <c r="I128" s="76">
+        <v>36</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.4">
@@ -4684,192 +4775,238 @@
       <c r="C129" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D129" s="20" t="s">
-        <v>267</v>
+      <c r="D129" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F129" s="7">
         <v>30</v>
       </c>
-      <c r="H129" s="4" t="s">
+      <c r="H129" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="I129" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A130" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D130" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E130" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F130" s="86">
+        <v>30</v>
+      </c>
+      <c r="H130" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I130" s="76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A131" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D131" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E131" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F131" s="86">
+        <v>30</v>
+      </c>
+      <c r="H131" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="I131" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A132" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C132" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D132" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E132" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F132" s="86">
+        <v>30</v>
+      </c>
+      <c r="H132" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="I132" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A133" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D133" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E133" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F133" s="86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A134" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C134" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D134" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E134" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F134" s="86">
+        <v>30</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I134" s="76">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A135" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D135" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E135" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F135" s="86">
+        <v>30</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I135" s="76">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A136" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D136" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E136" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F136" s="37">
+        <v>1544</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I136" s="76">
+        <f>SUM(F90:F137)</f>
+        <v>11048</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A137" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="C137" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="E137" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F137" s="37">
+        <v>166</v>
+      </c>
+      <c r="H137" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="I129" s="77">
-        <f>I128/3600</f>
-        <v>2.5438888888888891</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A130" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C130" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D130" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E130" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F130" s="101"/>
-      <c r="H130" s="95"/>
-      <c r="I130" s="96"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A131" s="97" t="s">
-        <v>268</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C131" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D131" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E131" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F131" s="101"/>
-      <c r="H131" s="95"/>
-      <c r="I131" s="96"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A132" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C132" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D132" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E132" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F132" s="101"/>
-      <c r="H132" s="95"/>
-      <c r="I132" s="96"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A133" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C133" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D133" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E133" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F133" s="101"/>
-      <c r="H133" s="95"/>
-      <c r="I133" s="96"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A134" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C134" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D134" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E134" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F134" s="101"/>
-      <c r="H134" s="95"/>
-      <c r="I134" s="96"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A135" s="97" t="s">
-        <v>292</v>
-      </c>
-      <c r="B135" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C135" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D135" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E135" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F135" s="101"/>
-      <c r="H135" s="95"/>
-      <c r="I135" s="96"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A136" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="B136" s="36" t="s">
-        <v>298</v>
-      </c>
-      <c r="C136" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D136" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="E136" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="F136" s="38"/>
-      <c r="H136" s="95"/>
-      <c r="I136" s="96"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A137" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="B137" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="C137" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D137" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="E137" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="F137" s="38"/>
-      <c r="H137" s="95"/>
-      <c r="I137" s="96"/>
+      <c r="I137" s="101">
+        <f>I136/3600</f>
+        <v>3.068888888888889</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H138" s="100"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A139" s="93" t="s">
+      <c r="A139" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B139" s="90"/>
-      <c r="C139" s="90"/>
-      <c r="D139" s="90"/>
-      <c r="E139" s="90"/>
-      <c r="F139" s="90"/>
+      <c r="B139" s="89"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="89"/>
+      <c r="E139" s="89"/>
+      <c r="F139" s="89"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="10" t="s">
@@ -4892,22 +5029,22 @@
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A141" s="43" t="s">
+      <c r="A141" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B141" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="C141" s="41" t="s">
+      <c r="B141" s="43" t="s">
+        <v>265</v>
+      </c>
+      <c r="C141" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="D141" s="41" t="s">
+      <c r="D141" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E141" s="41" t="s">
+      <c r="E141" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F141" s="45">
+      <c r="F141" s="44">
         <v>2786</v>
       </c>
     </row>
@@ -5052,22 +5189,22 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="43" t="s">
+      <c r="A149" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="B149" s="46" t="s">
+      <c r="B149" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C149" s="41" t="s">
+      <c r="C149" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D149" s="41" t="s">
+      <c r="D149" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E149" s="41" t="s">
+      <c r="E149" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="F149" s="45">
+      <c r="F149" s="44">
         <v>742</v>
       </c>
     </row>
@@ -5159,10 +5296,10 @@
         <v>49</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E154" s="14" t="s">
         <v>15</v>
@@ -5179,10 +5316,10 @@
         <v>49</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E155" s="14" t="s">
         <v>16</v>
@@ -5199,10 +5336,10 @@
         <v>49</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E156" s="14" t="s">
         <v>17</v>
@@ -5212,62 +5349,62 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A157" s="47" t="s">
+      <c r="A157" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B157" s="48" t="s">
+      <c r="B157" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="49" t="s">
+      <c r="C157" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D157" s="49" t="s">
+      <c r="D157" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E157" s="49" t="s">
+      <c r="E157" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F157" s="50">
+      <c r="F157" s="49">
         <v>30</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A158" s="47" t="s">
+      <c r="A158" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="B158" s="48" t="s">
+      <c r="B158" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="49" t="s">
+      <c r="C158" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D158" s="49" t="s">
+      <c r="D158" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="E158" s="49" t="s">
+      <c r="E158" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F158" s="50">
+      <c r="F158" s="49">
         <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A159" s="47" t="s">
+      <c r="A159" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B159" s="48" t="s">
+      <c r="B159" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C159" s="49" t="s">
+      <c r="C159" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="D159" s="49" t="s">
+      <c r="D159" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="E159" s="49" t="s">
+      <c r="E159" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F159" s="50">
+      <c r="F159" s="49">
         <v>30</v>
       </c>
     </row>
@@ -5291,7 +5428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="9" t="s">
         <v>43</v>
       </c>
@@ -5311,7 +5448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="9" t="s">
         <v>44</v>
       </c>
@@ -5331,7 +5468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="9" t="s">
         <v>45</v>
       </c>
@@ -5351,7 +5488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="9" t="s">
         <v>46</v>
       </c>
@@ -5371,27 +5508,27 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A165" s="43" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A165" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="44" t="s">
+      <c r="B165" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C165" s="41" t="s">
+      <c r="C165" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="D165" s="41" t="s">
+      <c r="D165" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E165" s="41" t="s">
+      <c r="E165" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F165" s="45">
+      <c r="F165" s="44">
         <v>5042</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="9" t="s">
         <v>58</v>
       </c>
@@ -5411,7 +5548,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="9" t="s">
         <v>59</v>
       </c>
@@ -5431,7 +5568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="9" t="s">
         <v>60</v>
       </c>
@@ -5451,7 +5588,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="9" t="s">
         <v>61</v>
       </c>
@@ -5471,202 +5608,184 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A170" s="47" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A170" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B170" s="48" t="s">
+      <c r="B170" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C170" s="49" t="s">
+      <c r="C170" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D170" s="49" t="s">
+      <c r="D170" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E170" s="49" t="s">
+      <c r="E170" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F170" s="52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A171" s="47" t="s">
+      <c r="F170" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A171" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B171" s="48" t="s">
+      <c r="B171" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C171" s="49" t="s">
+      <c r="C171" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D171" s="49" t="s">
+      <c r="D171" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E171" s="49" t="s">
+      <c r="E171" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F171" s="52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A172" s="47" t="s">
+      <c r="F171" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A172" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B172" s="48" t="s">
+      <c r="B172" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C172" s="49" t="s">
+      <c r="C172" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D172" s="49" t="s">
+      <c r="D172" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E172" s="49" t="s">
+      <c r="E172" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F172" s="52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A173" s="47" t="s">
+      <c r="F172" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A173" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B173" s="48" t="s">
+      <c r="B173" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C173" s="49" t="s">
+      <c r="C173" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D173" s="49" t="s">
+      <c r="D173" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E173" s="49" t="s">
+      <c r="E173" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F173" s="52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A174" s="43" t="s">
+      <c r="F173" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A174" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B174" s="44" t="s">
+      <c r="B174" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C174" s="41" t="s">
+      <c r="C174" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="D174" s="41" t="s">
+      <c r="D174" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E174" s="41" t="s">
+      <c r="E174" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="F174" s="45">
+      <c r="F174" s="44">
         <v>982</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A175" s="43" t="s">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A175" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B175" s="44" t="s">
+      <c r="B175" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C175" s="41" t="s">
+      <c r="C175" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D175" s="41" t="s">
+      <c r="D175" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E175" s="41" t="s">
+      <c r="E175" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F175" s="45">
+      <c r="F175" s="44">
         <v>1432</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A176" s="43" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A176" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="B176" s="44" t="s">
+      <c r="B176" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C176" s="41" t="s">
+      <c r="C176" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D176" s="41" t="s">
+      <c r="D176" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E176" s="41" t="s">
+      <c r="E176" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="F176" s="45">
+      <c r="F176" s="44">
         <v>755</v>
       </c>
-      <c r="H176" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I176" s="77">
-        <v>30</v>
-      </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A177" s="43" t="s">
+      <c r="A177" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="B177" s="44" t="s">
+      <c r="B177" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C177" s="41" t="s">
+      <c r="C177" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="D177" s="41" t="s">
+      <c r="D177" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="E177" s="41" t="s">
+      <c r="E177" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="F177" s="45">
+      <c r="F177" s="44">
         <v>864</v>
       </c>
-      <c r="H177" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="I177" s="77">
-        <v>0</v>
-      </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A178" s="47" t="s">
+      <c r="A178" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B178" s="49" t="s">
+      <c r="B178" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C178" s="49" t="s">
+      <c r="C178" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="D178" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="E178" s="49" t="s">
+      <c r="D178" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E178" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="F178" s="52">
-        <v>30</v>
-      </c>
-      <c r="H178" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="I178" s="77">
-        <v>8</v>
+      <c r="F178" s="51">
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.4">
@@ -5679,20 +5798,14 @@
       <c r="C179" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D179" s="20" t="s">
-        <v>267</v>
+      <c r="D179" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E179" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F179" s="7">
         <v>30</v>
-      </c>
-      <c r="H179" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="I179" s="77">
-        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.4">
@@ -5705,20 +5818,14 @@
       <c r="C180" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D180" s="20" t="s">
-        <v>267</v>
+      <c r="D180" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E180" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F180" s="7">
         <v>30</v>
-      </c>
-      <c r="H180" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="I180" s="77">
-        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.4">
@@ -5731,11 +5838,11 @@
       <c r="C181" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D181" s="20" t="s">
-        <v>267</v>
+      <c r="D181" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F181" s="7">
         <v>30</v>
@@ -5751,20 +5858,14 @@
       <c r="C182" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D182" s="20" t="s">
-        <v>267</v>
+      <c r="D182" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E182" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F182" s="7">
         <v>30</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="I182" s="77">
-        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.4">
@@ -5777,20 +5878,14 @@
       <c r="C183" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D183" s="20" t="s">
-        <v>267</v>
+      <c r="D183" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E183" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F183" s="7">
         <v>30</v>
-      </c>
-      <c r="H183" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I183" s="77">
-        <v>45</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.4">
@@ -5803,21 +5898,14 @@
       <c r="C184" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D184" s="20" t="s">
-        <v>267</v>
+      <c r="D184" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E184" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F184" s="7">
         <v>30</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I184" s="77">
-        <f>SUM(F141:F185)</f>
-        <v>13743</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.4">
@@ -5830,232 +5918,281 @@
       <c r="C185" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D185" s="20" t="s">
-        <v>267</v>
+      <c r="D185" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E185" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F185" s="7">
         <v>30</v>
       </c>
-      <c r="H185" s="4" t="s">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A186" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C186" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D186" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E186" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F186" s="86">
+        <v>30</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I186" s="76">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A187" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C187" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D187" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E187" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F187" s="86">
+        <v>30</v>
+      </c>
+      <c r="H187" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="I187" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A188" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C188" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D188" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E188" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F188" s="86">
+        <v>30</v>
+      </c>
+      <c r="H188" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I188" s="76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A189" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C189" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D189" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E189" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F189" s="86">
+        <v>30</v>
+      </c>
+      <c r="H189" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="I189" s="76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A190" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C190" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D190" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E190" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F190" s="86">
+        <v>30</v>
+      </c>
+      <c r="H190" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="I190" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A191" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C191" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D191" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E191" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F191" s="86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A192" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="B192" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="C192" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D192" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E192" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="F192" s="85">
+        <v>30</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I192" s="76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A193" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B193" s="47" t="s">
+        <v>297</v>
+      </c>
+      <c r="C193" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D193" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E193" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="F193" s="85">
+        <v>30</v>
+      </c>
+      <c r="H193" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I193" s="76">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A194" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="B194" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="C194" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D194" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="E194" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="F194" s="44">
+        <v>1942</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I194" s="76">
+        <f>SUM(F141:F195)</f>
+        <v>16136</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A195" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="B195" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="C195" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D195" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="E195" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="F195" s="44">
+        <v>211</v>
+      </c>
+      <c r="H195" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="I185" s="77">
-        <f>I184/3600</f>
-        <v>3.8174999999999999</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A186" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="B186" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C186" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D186" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E186" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F186" s="101"/>
-      <c r="H186" s="95"/>
-      <c r="I186" s="96"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A187" s="97" t="s">
-        <v>268</v>
-      </c>
-      <c r="B187" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C187" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D187" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E187" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F187" s="101"/>
-      <c r="H187" s="95"/>
-      <c r="I187" s="96"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A188" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="B188" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C188" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D188" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E188" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F188" s="101"/>
-      <c r="H188" s="95"/>
-      <c r="I188" s="96"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A189" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="B189" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C189" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D189" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E189" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F189" s="101"/>
-      <c r="H189" s="95"/>
-      <c r="I189" s="96"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A190" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="B190" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C190" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D190" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E190" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F190" s="101"/>
-      <c r="H190" s="95"/>
-      <c r="I190" s="96"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A191" s="97" t="s">
-        <v>292</v>
-      </c>
-      <c r="B191" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C191" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D191" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E191" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F191" s="101"/>
-      <c r="H191" s="95"/>
-      <c r="I191" s="96"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A192" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="B192" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="C192" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="D192" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="E192" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="F192" s="100"/>
-      <c r="H192" s="95"/>
-      <c r="I192" s="96"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A193" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="B193" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="C193" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="D193" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="E193" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="F193" s="100"/>
-      <c r="H193" s="95"/>
-      <c r="I193" s="96"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A194" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="B194" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="C194" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="D194" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="E194" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F194" s="45"/>
-      <c r="H194" s="95"/>
-      <c r="I194" s="96"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A195" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="B195" s="44" t="s">
-        <v>301</v>
-      </c>
-      <c r="C195" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="D195" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="E195" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="F195" s="45"/>
-      <c r="H195" s="95"/>
-      <c r="I195" s="96"/>
+      <c r="I195" s="101">
+        <f>I194/3600</f>
+        <v>4.4822222222222221</v>
+      </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A197" s="94" t="s">
+      <c r="A197" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="B197" s="90"/>
-      <c r="C197" s="90"/>
-      <c r="D197" s="90"/>
-      <c r="E197" s="90"/>
-      <c r="F197" s="90"/>
+      <c r="B197" s="89"/>
+      <c r="C197" s="89"/>
+      <c r="D197" s="89"/>
+      <c r="E197" s="89"/>
+      <c r="F197" s="89"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="10" t="s">
@@ -6078,22 +6215,22 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A199" s="55" t="s">
+      <c r="A199" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B199" s="56" t="s">
-        <v>267</v>
-      </c>
-      <c r="C199" s="57" t="s">
+      <c r="B199" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C199" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="D199" s="57" t="s">
+      <c r="D199" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E199" s="57" t="s">
+      <c r="E199" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F199" s="58">
+      <c r="F199" s="57">
         <v>30</v>
       </c>
     </row>
@@ -6238,22 +6375,22 @@
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A207" s="55" t="s">
+      <c r="A207" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="B207" s="59" t="s">
+      <c r="B207" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C207" s="57" t="s">
+      <c r="C207" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D207" s="57" t="s">
+      <c r="D207" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="E207" s="57" t="s">
+      <c r="E207" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="F207" s="58">
+      <c r="F207" s="57">
         <v>30</v>
       </c>
     </row>
@@ -6345,10 +6482,10 @@
         <v>49</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E212" s="14" t="s">
         <v>15</v>
@@ -6365,10 +6502,10 @@
         <v>49</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E213" s="14" t="s">
         <v>16</v>
@@ -6385,10 +6522,10 @@
         <v>49</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E214" s="14" t="s">
         <v>17</v>
@@ -6398,62 +6535,62 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A215" s="47" t="s">
+      <c r="A215" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B215" s="48" t="s">
+      <c r="B215" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C215" s="49" t="s">
+      <c r="C215" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="D215" s="49" t="s">
+      <c r="D215" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="E215" s="49" t="s">
+      <c r="E215" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F215" s="50">
+      <c r="F215" s="49">
         <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A216" s="47" t="s">
+      <c r="A216" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="B216" s="48" t="s">
+      <c r="B216" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C216" s="49" t="s">
+      <c r="C216" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D216" s="49" t="s">
+      <c r="D216" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="E216" s="49" t="s">
+      <c r="E216" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="F216" s="50">
+      <c r="F216" s="49">
         <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A217" s="47" t="s">
+      <c r="A217" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B217" s="48" t="s">
+      <c r="B217" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C217" s="49" t="s">
+      <c r="C217" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="D217" s="49" t="s">
+      <c r="D217" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="E217" s="49" t="s">
+      <c r="E217" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="F217" s="50">
+      <c r="F217" s="49">
         <v>30</v>
       </c>
     </row>
@@ -6558,22 +6695,22 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A223" s="62" t="s">
+      <c r="A223" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="B223" s="63" t="s">
+      <c r="B223" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C223" s="61" t="s">
+      <c r="C223" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="D223" s="61" t="s">
+      <c r="D223" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="E223" s="61" t="s">
+      <c r="E223" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F223" s="64">
+      <c r="F223" s="63">
         <v>1452</v>
       </c>
     </row>
@@ -6597,7 +6734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225" s="9" t="s">
         <v>59</v>
       </c>
@@ -6617,8 +6754,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A226" s="66" t="s">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A226" s="65" t="s">
         <v>134</v>
       </c>
       <c r="B226" s="18" t="s">
@@ -6633,12 +6770,12 @@
       <c r="E226" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F226" s="65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A227" s="66" t="s">
+      <c r="F226" s="64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A227" s="65" t="s">
         <v>135</v>
       </c>
       <c r="B227" s="18" t="s">
@@ -6653,11 +6790,11 @@
       <c r="E227" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="F227" s="65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F227" s="64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228" s="9" t="s">
         <v>60</v>
       </c>
@@ -6677,7 +6814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229" s="9" t="s">
         <v>61</v>
       </c>
@@ -6697,282 +6834,264 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A230" s="47" t="s">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A230" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B230" s="48" t="s">
+      <c r="B230" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C230" s="49" t="s">
+      <c r="C230" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="D230" s="49" t="s">
+      <c r="D230" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E230" s="49" t="s">
+      <c r="E230" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="F230" s="52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A231" s="47" t="s">
+      <c r="F230" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A231" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B231" s="48" t="s">
+      <c r="B231" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C231" s="49" t="s">
+      <c r="C231" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="D231" s="49" t="s">
+      <c r="D231" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E231" s="49" t="s">
+      <c r="E231" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F231" s="52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A232" s="47" t="s">
+      <c r="F231" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A232" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B232" s="48" t="s">
+      <c r="B232" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C232" s="49" t="s">
+      <c r="C232" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="D232" s="49" t="s">
+      <c r="D232" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E232" s="49" t="s">
+      <c r="E232" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="F232" s="52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A233" s="47" t="s">
+      <c r="F232" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A233" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B233" s="48" t="s">
+      <c r="B233" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C233" s="49" t="s">
+      <c r="C233" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="D233" s="49" t="s">
+      <c r="D233" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E233" s="49" t="s">
+      <c r="E233" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="F233" s="52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A234" s="67" t="s">
+      <c r="F233" s="51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A234" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="B234" s="68" t="s">
+      <c r="B234" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C234" s="69" t="s">
+      <c r="C234" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="D234" s="69" t="s">
+      <c r="D234" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="E234" s="69" t="s">
+      <c r="E234" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="F234" s="70">
+      <c r="F234" s="69">
         <v>562</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A235" s="67" t="s">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A235" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="B235" s="68" t="s">
+      <c r="B235" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C235" s="69" t="s">
+      <c r="C235" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="D235" s="69" t="s">
+      <c r="D235" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="E235" s="69" t="s">
+      <c r="E235" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="F235" s="70">
+      <c r="F235" s="69">
         <v>515</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A236" s="67" t="s">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A236" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="B236" s="68" t="s">
+      <c r="B236" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C236" s="69" t="s">
+      <c r="C236" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="D236" s="69" t="s">
+      <c r="D236" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="E236" s="69" t="s">
+      <c r="E236" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="F236" s="70">
+      <c r="F236" s="69">
         <v>1722</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A237" s="67" t="s">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A237" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="B237" s="68" t="s">
+      <c r="B237" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C237" s="69" t="s">
+      <c r="C237" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="D237" s="69" t="s">
+      <c r="D237" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="E237" s="69" t="s">
+      <c r="E237" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="F237" s="70">
+      <c r="F237" s="69">
         <v>843</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A238" s="67" t="s">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A238" s="66" t="s">
         <v>177</v>
       </c>
-      <c r="B238" s="68" t="s">
+      <c r="B238" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="C238" s="69" t="s">
+      <c r="C238" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="D238" s="69" t="s">
+      <c r="D238" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="E238" s="69" t="s">
+      <c r="E238" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="F238" s="70">
+      <c r="F238" s="69">
         <v>2142</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A239" s="55" t="s">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A239" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="B239" s="56" t="s">
+      <c r="B239" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C239" s="57" t="s">
+      <c r="C239" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D239" s="57" t="s">
+      <c r="D239" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E239" s="57" t="s">
+      <c r="E239" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F239" s="71">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A240" s="55" t="s">
+      <c r="F239" s="70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A240" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="B240" s="56" t="s">
+      <c r="B240" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C240" s="57" t="s">
+      <c r="C240" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D240" s="57" t="s">
+      <c r="D240" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E240" s="57" t="s">
+      <c r="E240" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="F240" s="71">
-        <v>30</v>
-      </c>
-      <c r="H240" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I240" s="77">
+      <c r="F240" s="70">
         <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A241" s="55" t="s">
+      <c r="A241" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="B241" s="56" t="s">
+      <c r="B241" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C241" s="57" t="s">
+      <c r="C241" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D241" s="57" t="s">
+      <c r="D241" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="E241" s="57" t="s">
+      <c r="E241" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="F241" s="71">
-        <v>30</v>
-      </c>
-      <c r="H241" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="I241" s="77">
-        <v>2</v>
+      <c r="F241" s="70">
+        <v>30</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A242" s="47" t="s">
+      <c r="A242" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B242" s="49" t="s">
+      <c r="B242" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C242" s="49" t="s">
+      <c r="C242" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="D242" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="E242" s="49" t="s">
+      <c r="D242" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E242" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="F242" s="52">
-        <v>30</v>
-      </c>
-      <c r="H242" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="I242" s="77">
-        <v>8</v>
+      <c r="F242" s="51">
+        <v>30</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.4">
@@ -6985,20 +7104,14 @@
       <c r="C243" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D243" s="20" t="s">
-        <v>267</v>
+      <c r="D243" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E243" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F243" s="7">
         <v>30</v>
-      </c>
-      <c r="H243" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="I243" s="77">
-        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.4">
@@ -7011,20 +7124,14 @@
       <c r="C244" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D244" s="20" t="s">
-        <v>267</v>
+      <c r="D244" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E244" s="14" t="s">
         <v>66</v>
       </c>
       <c r="F244" s="7">
         <v>30</v>
-      </c>
-      <c r="H244" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="I244" s="77">
-        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.4">
@@ -7037,11 +7144,11 @@
       <c r="C245" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D245" s="20" t="s">
-        <v>267</v>
+      <c r="D245" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E245" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F245" s="7">
         <v>30</v>
@@ -7057,20 +7164,14 @@
       <c r="C246" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D246" s="20" t="s">
-        <v>267</v>
+      <c r="D246" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E246" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F246" s="7">
         <v>30</v>
-      </c>
-      <c r="H246" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I246" s="77">
-        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.4">
@@ -7083,20 +7184,14 @@
       <c r="C247" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D247" s="20" t="s">
-        <v>267</v>
+      <c r="D247" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E247" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F247" s="7">
         <v>30</v>
-      </c>
-      <c r="H247" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="I247" s="77">
-        <v>51</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.4">
@@ -7109,21 +7204,14 @@
       <c r="C248" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D248" s="20" t="s">
-        <v>267</v>
+      <c r="D248" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E248" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F248" s="7">
         <v>30</v>
-      </c>
-      <c r="H248" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I248" s="77">
-        <f>SUM(F199:F249)</f>
-        <v>8586</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.4">
@@ -7136,1490 +7224,1916 @@
       <c r="C249" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D249" s="20" t="s">
-        <v>267</v>
+      <c r="D249" s="14" t="s">
+        <v>265</v>
       </c>
       <c r="E249" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F249" s="7">
         <v>30</v>
       </c>
-      <c r="H249" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I249" s="77">
-        <f>I248/3600</f>
-        <v>2.3849999999999998</v>
-      </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A250" s="97" t="s">
+      <c r="A250" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="B250" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C250" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D250" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E250" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F250" s="86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A251" s="82" t="s">
         <v>266</v>
       </c>
-      <c r="B250" s="16" t="s">
+      <c r="B251" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C251" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D251" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E251" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F251" s="86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A252" s="82" t="s">
+        <v>271</v>
+      </c>
+      <c r="B252" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C250" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D250" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E250" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F250" s="101"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A251" s="97" t="s">
-        <v>268</v>
-      </c>
-      <c r="B251" s="16" t="s">
+      <c r="C252" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D252" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E252" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F252" s="86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A253" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C253" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D253" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E253" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F253" s="86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A254" s="82" t="s">
+        <v>273</v>
+      </c>
+      <c r="B254" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C251" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D251" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E251" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F251" s="101"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A252" s="97" t="s">
-        <v>273</v>
-      </c>
-      <c r="B252" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C252" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D252" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E252" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F252" s="101"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A253" s="97" t="s">
+      <c r="C254" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D254" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E254" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F254" s="86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A255" s="82" t="s">
+        <v>290</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C255" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="D255" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="E255" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F255" s="86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A256" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="B253" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C253" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D253" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E253" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F253" s="101"/>
-      <c r="H253" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="I253" s="79">
-        <f>I32+I75+I127+I183+I247</f>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A254" s="97" t="s">
+      <c r="B256" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C256" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D256" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E256" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F256" s="64">
+        <v>30</v>
+      </c>
+      <c r="H256" s="102"/>
+      <c r="I256" s="103"/>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A257" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="B254" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C254" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D254" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E254" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F254" s="101"/>
-      <c r="H254" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="I254" s="79">
-        <f>I253-(I31+I74+I126+I182+I246)</f>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A255" s="97" t="s">
-        <v>292</v>
-      </c>
-      <c r="B255" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C255" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="D255" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E255" s="98" t="s">
-        <v>267</v>
-      </c>
-      <c r="F255" s="101"/>
-      <c r="H255" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="I255" s="79">
-        <f>(I31+I74+I126+I182+I246)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A256" s="66" t="s">
-        <v>276</v>
-      </c>
-      <c r="B256" s="18" t="s">
+      <c r="B257" s="18" t="s">
         <v>294</v>
-      </c>
-      <c r="C256" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D256" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="E256" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="F256" s="65"/>
-      <c r="H256" s="78"/>
-      <c r="I256" s="79"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A257" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="B257" s="18" t="s">
-        <v>296</v>
       </c>
       <c r="C257" s="19"/>
       <c r="D257" s="19"/>
       <c r="E257" s="19"/>
-      <c r="F257" s="65"/>
-      <c r="H257" s="78"/>
-      <c r="I257" s="79"/>
+      <c r="F257" s="64">
+        <v>30</v>
+      </c>
+      <c r="H257" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I257" s="76">
+        <v>36</v>
+      </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A258" s="66" t="s">
+      <c r="A258" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="C258" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D258" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="E258" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="F258" s="64">
+        <v>30</v>
+      </c>
+      <c r="H258" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="I258" s="76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A259" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="B259" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="C259" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D259" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E259" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="F259" s="85">
+        <v>30</v>
+      </c>
+      <c r="H259" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="I259" s="76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A260" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="B260" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="B258" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="C258" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D258" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="E258" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="F258" s="65"/>
-      <c r="H258" s="78"/>
-      <c r="I258" s="79"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A259" s="47" t="s">
+      <c r="C260" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D260" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="E260" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="F260" s="85">
+        <v>30</v>
+      </c>
+      <c r="H260" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="I260" s="76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A261" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="B259" s="48" t="s">
+      <c r="B261" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="C259" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="D259" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="E259" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="F259" s="100"/>
-      <c r="H259" s="78"/>
-      <c r="I259" s="79"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A260" s="47" t="s">
+      <c r="C261" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D261" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="E261" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="F261" s="70">
+        <v>30</v>
+      </c>
+      <c r="H261" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="I261" s="76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A262" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="B260" s="48" t="s">
+      <c r="B262" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="C260" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="D260" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="E260" s="49" t="s">
-        <v>267</v>
-      </c>
-      <c r="F260" s="100"/>
-      <c r="H260" s="78" t="s">
+      <c r="C262" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="D262" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="E262" s="56" t="s">
+        <v>265</v>
+      </c>
+      <c r="F262" s="70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A263" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="B263" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="C263" s="60"/>
+      <c r="D263" s="60"/>
+      <c r="E263" s="60"/>
+      <c r="F263" s="63"/>
+      <c r="H263" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="I263" s="76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A264" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="B264" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C264" s="60"/>
+      <c r="D264" s="60"/>
+      <c r="E264" s="60"/>
+      <c r="F264" s="63"/>
+      <c r="H264" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I264" s="76">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A265" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B265" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="C265" s="60"/>
+      <c r="D265" s="60"/>
+      <c r="E265" s="60"/>
+      <c r="F265" s="63"/>
+      <c r="H265" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I265" s="76">
+        <f>SUM(F199:F266)</f>
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A266" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B266" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="C266" s="60"/>
+      <c r="D266" s="60"/>
+      <c r="E266" s="60"/>
+      <c r="F266" s="63"/>
+      <c r="H266" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I266" s="101">
+        <f>I265/3600</f>
+        <v>2.4933333333333332</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A267" s="104"/>
+      <c r="B267" s="105"/>
+      <c r="C267" s="106"/>
+      <c r="D267" s="106"/>
+      <c r="E267" s="106"/>
+      <c r="F267" s="107"/>
+      <c r="H267" s="102"/>
+      <c r="I267" s="103"/>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A268" s="104"/>
+      <c r="B268" s="105"/>
+      <c r="C268" s="106"/>
+      <c r="D268" s="106"/>
+      <c r="E268" s="106"/>
+      <c r="F268" s="107"/>
+      <c r="H268" s="102"/>
+      <c r="I268" s="103"/>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A269" s="104"/>
+      <c r="B269" s="105"/>
+      <c r="C269" s="106"/>
+      <c r="D269" s="106"/>
+      <c r="E269" s="106"/>
+      <c r="F269" s="107"/>
+      <c r="H269" s="102"/>
+      <c r="I269" s="103"/>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A270" s="104"/>
+      <c r="B270" s="105"/>
+      <c r="C270" s="106"/>
+      <c r="D270" s="106"/>
+      <c r="E270" s="106"/>
+      <c r="F270" s="107"/>
+      <c r="H270" s="77" t="s">
+        <v>131</v>
+      </c>
+      <c r="I270" s="78">
+        <f>I38+I84+I135+I193+I264</f>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A271" s="104"/>
+      <c r="B271" s="105"/>
+      <c r="C271" s="106"/>
+      <c r="D271" s="106"/>
+      <c r="E271" s="106"/>
+      <c r="F271" s="107"/>
+      <c r="H271" s="77" t="s">
+        <v>130</v>
+      </c>
+      <c r="I271" s="78">
+        <f>I270-I272</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A272" s="104"/>
+      <c r="B272" s="105"/>
+      <c r="C272" s="106"/>
+      <c r="D272" s="106"/>
+      <c r="E272" s="106"/>
+      <c r="F272" s="107"/>
+      <c r="H272" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I272" s="78">
+        <f>I37+I83+I134+I192+I263</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A273" s="104"/>
+      <c r="B273" s="105"/>
+      <c r="C273" s="106"/>
+      <c r="D273" s="106"/>
+      <c r="E273" s="106"/>
+      <c r="F273" s="107"/>
+      <c r="H273" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="I260" s="79">
-        <f>I33+I76+I128+I184+I248</f>
-        <v>55858</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A261" s="55" t="s">
-        <v>280</v>
-      </c>
-      <c r="B261" s="56" t="s">
-        <v>300</v>
-      </c>
-      <c r="C261" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="D261" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="E261" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="F261" s="71"/>
-      <c r="H261" s="78"/>
-      <c r="I261" s="79"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A262" s="55" t="s">
-        <v>281</v>
-      </c>
-      <c r="B262" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="C262" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="D262" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="E262" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="F262" s="71"/>
-      <c r="H262" s="78"/>
-      <c r="I262" s="79"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A263" s="62" t="s">
-        <v>282</v>
-      </c>
-      <c r="B263" s="63" t="s">
+      <c r="I273" s="78">
+        <f>I39+I85+I136+I194+I265</f>
+        <v>64563</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A274" s="104"/>
+      <c r="B274" s="105"/>
+      <c r="C274" s="106"/>
+      <c r="D274" s="106"/>
+      <c r="E274" s="106"/>
+      <c r="F274" s="107"/>
+      <c r="H274" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="I274" s="108">
+        <f>I273/3600</f>
+        <v>17.934166666666666</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A276" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="B276" s="89"/>
+      <c r="C276" s="89"/>
+      <c r="D276" s="89"/>
+      <c r="E276" s="89"/>
+      <c r="F276" s="89"/>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A277" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D277" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E277" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="F277" s="98"/>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A278" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C263" s="61"/>
-      <c r="D263" s="61"/>
-      <c r="E263" s="61"/>
-      <c r="F263" s="64"/>
-      <c r="H263" s="78"/>
-      <c r="I263" s="79"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A264" s="62" t="s">
-        <v>283</v>
-      </c>
-      <c r="B264" s="63" t="s">
-        <v>286</v>
-      </c>
-      <c r="C264" s="61"/>
-      <c r="D264" s="61"/>
-      <c r="E264" s="61"/>
-      <c r="F264" s="64"/>
-      <c r="H264" s="78"/>
-      <c r="I264" s="79"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A265" s="62" t="s">
-        <v>284</v>
-      </c>
-      <c r="B265" s="63"/>
-      <c r="C265" s="61"/>
-      <c r="D265" s="61"/>
-      <c r="E265" s="61"/>
-      <c r="F265" s="64"/>
-      <c r="H265" s="78"/>
-      <c r="I265" s="79"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A266" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="B266" s="63"/>
-      <c r="C266" s="61"/>
-      <c r="D266" s="61"/>
-      <c r="E266" s="61"/>
-      <c r="F266" s="64"/>
-      <c r="H266" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="I266" s="79">
-        <f>I260/3600</f>
-        <v>15.516111111111112</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A268" s="90" t="s">
-        <v>264</v>
-      </c>
-      <c r="B268" s="90"/>
-      <c r="C268" s="90"/>
-      <c r="D268" s="90"/>
-      <c r="E268" s="90"/>
-      <c r="F268" s="90"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A269" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B269" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C269" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D269" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E269" s="89" t="s">
-        <v>255</v>
-      </c>
-      <c r="F269" s="89"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A270" s="1" t="s">
+      <c r="B278" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C278" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="D278" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E278" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="F278" s="95"/>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A279" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C279" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D279" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E279" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F279" s="88"/>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A280" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C270" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D270" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E270" s="83" t="s">
-        <v>256</v>
-      </c>
-      <c r="F270" s="84"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A271" s="1" t="s">
+      <c r="B280" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C280" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D280" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E280" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F280" s="88"/>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A281" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C271" s="81" t="s">
+      <c r="B281" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C281" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D271" s="82" t="s">
+      <c r="D281" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F281" s="88"/>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A282" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C282" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D282" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E282" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F282" s="88"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A283" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C283" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D283" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E283" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F283" s="88"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A284" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C284" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D284" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E284" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F284" s="88"/>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A285" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D285" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E285" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F285" s="88"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A286" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C286" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D286" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E271" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F271" s="88"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A272" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C272" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="82" t="s">
+      <c r="E286" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F286" s="88"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A287" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C287" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D287" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="E272" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F272" s="88"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A273" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C273" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D273" s="82" t="s">
+      <c r="E287" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F287" s="88"/>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A288" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C288" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="E273" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F273" s="88"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A274" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C274" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D274" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E274" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F274" s="88"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A275" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C275" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D275" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E275" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F275" s="88"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A276" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C276" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D276" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="E276" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F276" s="88"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A277" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C277" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D277" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="E277" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F277" s="88"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A278" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C278" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D278" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E278" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F278" s="88"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A279" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C279" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D279" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E279" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F279" s="88"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A280" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C280" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D280" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E280" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F280" s="88"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A281" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C281" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D281" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="E281" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F281" s="88"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A282" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C282" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D282" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="E282" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F282" s="88"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A283" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C283" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D283" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="E283" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F283" s="88"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A284" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C284" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D284" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="E284" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F284" s="88"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A285" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C285" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D285" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E285" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F285" s="88"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A286" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C286" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D286" s="82" t="s">
-        <v>38</v>
-      </c>
-      <c r="E286" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F286" s="88"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A287" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C287" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D287" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="E287" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F287" s="88"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A288" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C288" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D288" s="82" t="s">
-        <v>40</v>
-      </c>
       <c r="E288" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F288" s="88"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C289" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D289" s="82" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C289" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D289" s="81" t="s">
+        <v>12</v>
       </c>
       <c r="E289" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F289" s="88"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C290" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D290" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E290" s="83" t="s">
-        <v>256</v>
-      </c>
-      <c r="F290" s="84"/>
+        <v>32</v>
+      </c>
+      <c r="C290" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D290" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E290" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F290" s="88"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C291" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D291" s="82" t="s">
-        <v>53</v>
+        <v>33</v>
+      </c>
+      <c r="C291" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291" s="81" t="s">
+        <v>16</v>
       </c>
       <c r="E291" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F291" s="88"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C292" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D292" s="82" t="s">
-        <v>54</v>
+        <v>34</v>
+      </c>
+      <c r="C292" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="D292" s="81" t="s">
+        <v>17</v>
       </c>
       <c r="E292" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F292" s="88"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C293" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D293" s="82" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="C293" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D293" s="81" t="s">
+        <v>4</v>
       </c>
       <c r="E293" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F293" s="88"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C294" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="D294" s="82" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="C294" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D294" s="81" t="s">
+        <v>38</v>
       </c>
       <c r="E294" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F294" s="88"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C295" s="81"/>
-      <c r="D295" s="82" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="C295" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D295" s="81" t="s">
+        <v>39</v>
       </c>
       <c r="E295" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F295" s="88"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C296" s="81"/>
-      <c r="D296" s="82" t="s">
-        <v>66</v>
+        <v>45</v>
+      </c>
+      <c r="C296" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D296" s="81" t="s">
+        <v>40</v>
       </c>
       <c r="E296" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F296" s="88"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C297" s="81"/>
-      <c r="D297" s="82" t="s">
-        <v>250</v>
+        <v>46</v>
+      </c>
+      <c r="C297" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D297" s="81" t="s">
+        <v>41</v>
       </c>
       <c r="E297" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F297" s="88"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C298" s="81"/>
-      <c r="D298" s="82" t="s">
-        <v>251</v>
-      </c>
-      <c r="E298" s="87" t="s">
-        <v>261</v>
-      </c>
-      <c r="F298" s="88"/>
+        <v>57</v>
+      </c>
+      <c r="C298" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D298" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E298" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="F298" s="95"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C299" s="81"/>
-      <c r="D299" s="82" t="s">
-        <v>252</v>
+        <v>58</v>
+      </c>
+      <c r="C299" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D299" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="E299" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F299" s="88"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C300" s="81"/>
-      <c r="D300" s="82" t="s">
-        <v>253</v>
+        <v>59</v>
+      </c>
+      <c r="C300" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D300" s="81" t="s">
+        <v>54</v>
       </c>
       <c r="E300" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F300" s="88"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C301" s="81"/>
-      <c r="D301" s="82" t="s">
-        <v>254</v>
+        <v>60</v>
+      </c>
+      <c r="C301" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D301" s="81" t="s">
+        <v>55</v>
       </c>
       <c r="E301" s="87" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F301" s="88"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B302" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C302" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D302" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E302" s="83" t="s">
-        <v>257</v>
-      </c>
-      <c r="F302" s="84"/>
+        <v>211</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C302" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="D302" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="E302" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F302" s="88"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B303" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C303" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D303" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E303" s="83" t="s">
-        <v>257</v>
-      </c>
-      <c r="F303" s="84"/>
+        <v>212</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C303" s="80"/>
+      <c r="D303" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="E303" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F303" s="88"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B304" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C304" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D304" s="13" t="s">
-        <v>82</v>
+        <v>213</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C304" s="80"/>
+      <c r="D304" s="81" t="s">
+        <v>66</v>
       </c>
       <c r="E304" s="87" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F304" s="88"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B305" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C305" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D305" s="13" t="s">
-        <v>83</v>
+        <v>214</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C305" s="80"/>
+      <c r="D305" s="81" t="s">
+        <v>248</v>
       </c>
       <c r="E305" s="87" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F305" s="88"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B306" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="C306" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D306" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E306" s="83" t="s">
-        <v>258</v>
-      </c>
-      <c r="F306" s="84"/>
+        <v>215</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C306" s="80"/>
+      <c r="D306" s="81" t="s">
+        <v>249</v>
+      </c>
+      <c r="E306" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="F306" s="88"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B307" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C307" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D307" s="51" t="s">
-        <v>15</v>
+        <v>216</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C307" s="80"/>
+      <c r="D307" s="81" t="s">
+        <v>250</v>
       </c>
       <c r="E307" s="87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F307" s="88"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B308" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C308" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D308" s="51" t="s">
-        <v>16</v>
+        <v>217</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C308" s="80"/>
+      <c r="D308" s="81" t="s">
+        <v>251</v>
       </c>
       <c r="E308" s="87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F308" s="88"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B309" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C309" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D309" s="51" t="s">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C309" s="80"/>
+      <c r="D309" s="81" t="s">
+        <v>252</v>
       </c>
       <c r="E309" s="87" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F309" s="88"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B310" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="C310" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D310" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E310" s="83" t="s">
-        <v>258</v>
-      </c>
-      <c r="F310" s="84"/>
+        <v>219</v>
+      </c>
+      <c r="B310" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="C310" s="110" t="s">
+        <v>285</v>
+      </c>
+      <c r="D310" s="30"/>
+      <c r="E310" s="119" t="s">
+        <v>321</v>
+      </c>
+      <c r="F310" s="120"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B311" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="C311" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D311" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E311" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="F311" s="88"/>
+        <v>220</v>
+      </c>
+      <c r="B311" s="109" t="s">
+        <v>266</v>
+      </c>
+      <c r="C311" s="110" t="s">
+        <v>286</v>
+      </c>
+      <c r="D311" s="30"/>
+      <c r="E311" s="119" t="s">
+        <v>321</v>
+      </c>
+      <c r="F311" s="120"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B312" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="C312" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D312" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E312" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="F312" s="88"/>
+        <v>221</v>
+      </c>
+      <c r="B312" s="109" t="s">
+        <v>271</v>
+      </c>
+      <c r="C312" s="110" t="s">
+        <v>287</v>
+      </c>
+      <c r="D312" s="30"/>
+      <c r="E312" s="119" t="s">
+        <v>321</v>
+      </c>
+      <c r="F312" s="120"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B313" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="C313" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D313" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E313" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="F313" s="88"/>
+        <v>222</v>
+      </c>
+      <c r="B313" s="109" t="s">
+        <v>272</v>
+      </c>
+      <c r="C313" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="D313" s="30"/>
+      <c r="E313" s="119" t="s">
+        <v>321</v>
+      </c>
+      <c r="F313" s="120"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B314" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="C314" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D314" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="E314" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="F314" s="88"/>
+        <v>223</v>
+      </c>
+      <c r="B314" s="109" t="s">
+        <v>273</v>
+      </c>
+      <c r="C314" s="110" t="s">
+        <v>288</v>
+      </c>
+      <c r="D314" s="30"/>
+      <c r="E314" s="119" t="s">
+        <v>321</v>
+      </c>
+      <c r="F314" s="120"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B315" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="C315" s="51"/>
-      <c r="D315" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="E315" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="F315" s="88"/>
+        <v>224</v>
+      </c>
+      <c r="B315" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="C315" s="110" t="s">
+        <v>291</v>
+      </c>
+      <c r="D315" s="30"/>
+      <c r="E315" s="119" t="s">
+        <v>321</v>
+      </c>
+      <c r="F315" s="120"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B316" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C316" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C316" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D316" s="42" t="s">
+      <c r="D316" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E316" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="F316" s="86"/>
+      <c r="E316" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="F316" s="95"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B317" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C317" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="D317" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E317" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="F317" s="86"/>
+        <v>226</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C317" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D317" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E317" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="F317" s="95"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B318" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C318" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C318" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D318" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E318" s="83" t="s">
-        <v>259</v>
-      </c>
-      <c r="F318" s="84"/>
+      <c r="D318" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E318" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="F318" s="88"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B319" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C319" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B319" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C319" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D319" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E319" s="83" t="s">
-        <v>259</v>
-      </c>
-      <c r="F319" s="84"/>
+      <c r="D319" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E319" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="F319" s="88"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B320" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C320" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D320" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E320" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="F320" s="86"/>
+        <v>229</v>
+      </c>
+      <c r="B320" s="111" t="s">
+        <v>274</v>
+      </c>
+      <c r="C320" s="112" t="s">
+        <v>292</v>
+      </c>
+      <c r="D320" s="19"/>
+      <c r="E320" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="F320" s="88"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B321" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C321" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D321" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="E321" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="F321" s="86"/>
+        <v>230</v>
+      </c>
+      <c r="B321" s="111" t="s">
+        <v>275</v>
+      </c>
+      <c r="C321" s="112" t="s">
+        <v>294</v>
+      </c>
+      <c r="D321" s="19"/>
+      <c r="E321" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="F321" s="88"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B322" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C322" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D322" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="E322" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="F322" s="86"/>
+        <v>231</v>
+      </c>
+      <c r="B322" s="111" t="s">
+        <v>295</v>
+      </c>
+      <c r="C322" s="112" t="s">
+        <v>293</v>
+      </c>
+      <c r="D322" s="19"/>
+      <c r="E322" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="F322" s="88"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B323" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="C323" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D323" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="B323" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C323" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D323" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E323" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="F323" s="84"/>
+      <c r="E323" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="F323" s="95"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B324" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C324" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D324" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="E324" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="F324" s="84"/>
+        <v>233</v>
+      </c>
+      <c r="B324" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="C324" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D324" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E324" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F324" s="88"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B325" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="C325" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D325" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E325" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="F325" s="84"/>
+        <v>234</v>
+      </c>
+      <c r="B325" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C325" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D325" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E325" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F325" s="88"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B326" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C326" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D326" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="E326" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="F326" s="84"/>
+        <v>235</v>
+      </c>
+      <c r="B326" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C326" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D326" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E326" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F326" s="88"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B327" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C327" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="B327" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C327" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D327" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="E327" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="F327" s="84"/>
+      <c r="D327" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E327" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="F327" s="95"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B328" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B328" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="C328" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D328" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E328" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F328" s="88"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A329" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B329" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C329" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D329" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E329" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F329" s="88"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A330" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B330" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="C330" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D330" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E330" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F330" s="88"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A331" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B331" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C331" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D331" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E331" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F331" s="88"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A332" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B332" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C332" s="50"/>
+      <c r="D332" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E332" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F332" s="88"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A333" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B333" s="113" t="s">
+        <v>276</v>
+      </c>
+      <c r="C333" s="114" t="s">
+        <v>296</v>
+      </c>
+      <c r="D333" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="E333" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F333" s="88"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A334" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B334" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="C334" s="114" t="s">
+        <v>297</v>
+      </c>
+      <c r="D334" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="E334" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="F334" s="88"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A335" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B335" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C335" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D335" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E335" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="F335" s="97"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A336" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B336" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C336" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D336" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E336" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="F336" s="97"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A337" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B337" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C337" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D337" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E337" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="F337" s="95"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A338" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B338" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C338" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D338" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E338" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="F338" s="95"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A339" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B339" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C339" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D339" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E339" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="F339" s="97"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A340" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B340" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C340" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D340" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E340" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="F340" s="97"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A341" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B341" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C341" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D341" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E341" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="F341" s="97"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A342" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B342" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="C342" s="116" t="s">
+        <v>298</v>
+      </c>
+      <c r="D342" s="41"/>
+      <c r="E342" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="F342" s="97"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A343" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B343" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C343" s="116" t="s">
+        <v>299</v>
+      </c>
+      <c r="D343" s="41"/>
+      <c r="E343" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="F343" s="97"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A344" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B344" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C344" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D344" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E344" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F344" s="95"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A345" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B345" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C345" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D345" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E345" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F345" s="95"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A346" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B346" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C346" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D346" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="E346" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F346" s="95"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A347" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B347" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C347" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D347" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E347" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F347" s="95"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A348" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B348" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C348" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D348" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="E348" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F348" s="95"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A349" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B349" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C328" s="54" t="s">
+      <c r="C349" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="D328" s="54" t="s">
+      <c r="D349" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="E328" s="83" t="s">
-        <v>260</v>
-      </c>
-      <c r="F328" s="84"/>
+      <c r="E349" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F349" s="95"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A350" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B350" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="C350" s="118" t="s">
+        <v>300</v>
+      </c>
+      <c r="D350" s="59"/>
+      <c r="E350" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F350" s="95"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A351" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B351" s="117" t="s">
+        <v>281</v>
+      </c>
+      <c r="C351" s="118" t="s">
+        <v>284</v>
+      </c>
+      <c r="D351" s="59"/>
+      <c r="E351" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F351" s="95"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A352" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B352" s="117" t="s">
+        <v>282</v>
+      </c>
+      <c r="C352" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="D352" s="59"/>
+      <c r="E352" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F352" s="95"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A353" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B353" s="117" t="s">
+        <v>283</v>
+      </c>
+      <c r="C353" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="D353" s="59"/>
+      <c r="E353" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="F353" s="95"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="E283:F283"/>
+  <mergeCells count="83">
+    <mergeCell ref="E350:F350"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="E352:F352"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="E349:F349"/>
+    <mergeCell ref="E340:F340"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="E344:F344"/>
+    <mergeCell ref="E345:F345"/>
+    <mergeCell ref="E346:F346"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="E319:F319"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="E324:F324"/>
+    <mergeCell ref="E347:F347"/>
+    <mergeCell ref="E348:F348"/>
+    <mergeCell ref="E320:F320"/>
+    <mergeCell ref="E321:F321"/>
+    <mergeCell ref="E322:F322"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="E334:F334"/>
+    <mergeCell ref="E295:F295"/>
+    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="E297:F297"/>
+    <mergeCell ref="E317:F317"/>
+    <mergeCell ref="E318:F318"/>
+    <mergeCell ref="E310:F310"/>
+    <mergeCell ref="E311:F311"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="E313:F313"/>
+    <mergeCell ref="E314:F314"/>
+    <mergeCell ref="E315:F315"/>
+    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="E278:F278"/>
+    <mergeCell ref="E279:F279"/>
+    <mergeCell ref="E280:F280"/>
+    <mergeCell ref="E281:F281"/>
     <mergeCell ref="E284:F284"/>
-    <mergeCell ref="A268:F268"/>
-    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="E331:F331"/>
+    <mergeCell ref="E332:F332"/>
+    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="E326:F326"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="E304:F304"/>
+    <mergeCell ref="E305:F305"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="E307:F307"/>
+    <mergeCell ref="E308:F308"/>
+    <mergeCell ref="E293:F293"/>
+    <mergeCell ref="E294:F294"/>
+    <mergeCell ref="E335:F335"/>
+    <mergeCell ref="E336:F336"/>
+    <mergeCell ref="E337:F337"/>
+    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="E339:F339"/>
+    <mergeCell ref="E309:F309"/>
+    <mergeCell ref="E316:F316"/>
+    <mergeCell ref="E298:F298"/>
+    <mergeCell ref="E299:F299"/>
+    <mergeCell ref="E300:F300"/>
+    <mergeCell ref="E301:F301"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="E303:F303"/>
+    <mergeCell ref="E291:F291"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="A276:F276"/>
+    <mergeCell ref="E285:F285"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A88:F88"/>
     <mergeCell ref="A139:F139"/>
     <mergeCell ref="A197:F197"/>
-    <mergeCell ref="E278:F278"/>
-    <mergeCell ref="E279:F279"/>
-    <mergeCell ref="E280:F280"/>
-    <mergeCell ref="E281:F281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="E301:F301"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="E290:F290"/>
-    <mergeCell ref="E291:F291"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="E293:F293"/>
-    <mergeCell ref="E294:F294"/>
-    <mergeCell ref="E295:F295"/>
-    <mergeCell ref="E316:F316"/>
-    <mergeCell ref="E317:F317"/>
-    <mergeCell ref="E318:F318"/>
-    <mergeCell ref="E319:F319"/>
-    <mergeCell ref="E320:F320"/>
-    <mergeCell ref="E274:F274"/>
-    <mergeCell ref="E275:F275"/>
-    <mergeCell ref="E276:F276"/>
-    <mergeCell ref="E314:F314"/>
-    <mergeCell ref="E315:F315"/>
-    <mergeCell ref="E308:F308"/>
-    <mergeCell ref="E309:F309"/>
-    <mergeCell ref="E310:F310"/>
-    <mergeCell ref="E311:F311"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="E313:F313"/>
-    <mergeCell ref="E296:F296"/>
-    <mergeCell ref="E297:F297"/>
-    <mergeCell ref="E298:F298"/>
-    <mergeCell ref="E299:F299"/>
-    <mergeCell ref="E300:F300"/>
-    <mergeCell ref="E269:F269"/>
-    <mergeCell ref="E270:F270"/>
-    <mergeCell ref="E271:F271"/>
-    <mergeCell ref="E272:F272"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="E285:F285"/>
     <mergeCell ref="E286:F286"/>
     <mergeCell ref="E287:F287"/>
     <mergeCell ref="E288:F288"/>
     <mergeCell ref="E289:F289"/>
-    <mergeCell ref="E303:F303"/>
-    <mergeCell ref="E304:F304"/>
-    <mergeCell ref="E305:F305"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="E307:F307"/>
-    <mergeCell ref="E326:F326"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="E328:F328"/>
-    <mergeCell ref="E321:F321"/>
-    <mergeCell ref="E322:F322"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="E324:F324"/>
-    <mergeCell ref="E325:F325"/>
+    <mergeCell ref="E290:F290"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="E283:F283"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
